--- a/decArgo_soft/soft/_argo_tools_histo_soft.xlsx
+++ b/decArgo_soft/soft/_argo_tools_histo_soft.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Description</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>Coriolis Format Convertion</t>
+  </si>
+  <si>
+    <t>COUF</t>
+  </si>
+  <si>
+    <t>Coriolis Update Format</t>
+  </si>
+  <si>
+    <t>Code for nc_update_argo_format_v_x_y tools</t>
   </si>
 </sst>
 </file>
@@ -423,11 +432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,6 +502,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_soft/soft/_argo_tools_histo_soft.xlsx
+++ b/decArgo_soft/soft/_argo_tools_histo_soft.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Description</t>
   </si>
@@ -43,9 +43,6 @@
     <t>COriolis QC</t>
   </si>
   <si>
-    <t>Code for the Matlab decoder</t>
-  </si>
-  <si>
     <t>Code for the Matlab RTQC tool</t>
   </si>
   <si>
@@ -68,6 +65,18 @@
   </si>
   <si>
     <t>Code for nc_update_argo_format_v_x_y tools</t>
+  </si>
+  <si>
+    <t>CODG</t>
+  </si>
+  <si>
+    <t>COriolis Decodage Glider</t>
+  </si>
+  <si>
+    <t>Code for the Matlab Argo decoder</t>
+  </si>
+  <si>
+    <t>Code for the Matlab Glider decoder</t>
   </si>
 </sst>
 </file>
@@ -432,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,57 +469,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
